--- a/data/trans_bre/P2A_psíq_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.508900531875903</v>
+        <v>-1.567752898223771</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.051108252266099</v>
+        <v>-2.251613678054272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8567701120233581</v>
+        <v>-0.7301887007082506</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.018474570062154</v>
+        <v>-1.824152318801997</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5808716363086346</v>
+        <v>-0.5862957792833673</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4873224631211012</v>
+        <v>-0.5042727465607247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3535978338594841</v>
+        <v>-0.3214143684945582</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3863077161863626</v>
+        <v>-0.3475213135775952</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7233441061073719</v>
+        <v>0.6428048791763558</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.166656671861151</v>
+        <v>1.07378252538469</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.817665301893828</v>
+        <v>1.977359654220235</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.664635653384278</v>
+        <v>1.840227128587957</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6017678164205478</v>
+        <v>0.5553964780473495</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4691368983661576</v>
+        <v>0.4665512130164525</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.543587927442186</v>
+        <v>1.623754139276995</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5957105969495973</v>
+        <v>0.7185530892818214</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.8608699707215828</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5414093428169666</v>
+        <v>0.5414093428169664</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4233861500295888</v>
+        <v>-0.381660089395905</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.4565222707717537</v>
+        <v>-0.4612172808133323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.05491692836845385</v>
+        <v>-0.04343475839946758</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09303570510649488</v>
+        <v>0.06370343544024409</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5661628060560859</v>
+        <v>-0.5755092935006904</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2833875200765358</v>
+        <v>-0.2823126982900305</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1303895082076932</v>
+        <v>-0.06391537423362809</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0005369179606088629</v>
+        <v>0.01097291283208785</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6955592599187476</v>
+        <v>0.7281783596907556</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.070839837864905</v>
+        <v>1.072892688213527</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.350288134347686</v>
+        <v>1.383105591474488</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.050839370324957</v>
+        <v>1.953324041213717</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.339973021332497</v>
+        <v>3.007057790622401</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.239685614076359</v>
+        <v>1.222568179119194</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.798975820892505</v>
+        <v>2.786633058679636</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.381569781586529</v>
+        <v>1.270717675241881</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.5487863948564365</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.0224004384322251</v>
+        <v>-0.02240043843222475</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>8.368388435927145</v>
@@ -849,7 +849,7 @@
         <v>1.512530371726836</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.009976459903580846</v>
+        <v>-0.009976459903580691</v>
       </c>
     </row>
     <row r="11">
@@ -860,24 +860,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4615502681846821</v>
+        <v>0.4754311382308997</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.537788072249959</v>
+        <v>-1.426643285680995</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3660090339771737</v>
+        <v>-0.2202524129835841</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.91174229613504</v>
+        <v>-1.614067193963661</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.7171962241873471</v>
+        <v>-0.8035772532431521</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.5381211842360165</v>
+        <v>-0.5138590047435961</v>
       </c>
     </row>
     <row r="12">
@@ -888,24 +888,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.820245056258547</v>
+        <v>2.975974941305487</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.050357591326949</v>
+        <v>1.950818939059596</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.481948264207333</v>
+        <v>1.738589396122619</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.416804431755426</v>
+        <v>1.57260865025939</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>3.532005742852546</v>
+        <v>3.491668451892171</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.044845216853763</v>
+        <v>1.270217389380475</v>
       </c>
     </row>
     <row r="13">
@@ -952,28 +952,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.230306716954498</v>
+        <v>-0.2143586718588527</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4570866458458656</v>
+        <v>-0.4439491569750562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.153932637757668</v>
+        <v>0.1304499653510867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02468316870642492</v>
+        <v>-0.05186503551730473</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2268405880230958</v>
+        <v>-0.1869246622831103</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2097212039303187</v>
+        <v>-0.203119662499716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08719453712416352</v>
+        <v>0.09321201700208656</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.001444617051140422</v>
+        <v>-0.02017364297119981</v>
       </c>
     </row>
     <row r="15">
@@ -984,28 +984,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7948929925822437</v>
+        <v>0.7535688539032906</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9307433031378409</v>
+        <v>0.9603030636631827</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.278439027766853</v>
+        <v>1.266809607017888</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.514828620874906</v>
+        <v>1.460286447877367</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.160531774282355</v>
+        <v>1.130946403396456</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6348087615470634</v>
+        <v>0.61944635580485</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.784853010243188</v>
+        <v>1.816747505566715</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7868563468357822</v>
+        <v>0.7505129697168726</v>
       </c>
     </row>
     <row r="16">
